--- a/results/model_fitting.xlsx
+++ b/results/model_fitting.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8dcd8842240deb54/Doutorado/Predicao_ferrovias/ibm-code/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6BD0905-48E1-9B4C-AFC3-B461A7849631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{D6BD0905-48E1-9B4C-AFC3-B461A7849631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22FC9A29-03C9-BD4F-AB7B-80B77F66C4D2}"/>
   <bookViews>
-    <workbookView xWindow="-27260" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{3AC190BB-5151-4C47-9E80-BEAFBCB2BADC}"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="27260" windowHeight="16940" xr2:uid="{3AC190BB-5151-4C47-9E80-BEAFBCB2BADC}"/>
   </bookViews>
   <sheets>
-    <sheet name="habitat_amount" sheetId="1" r:id="rId1"/>
-    <sheet name="configuration" sheetId="2" r:id="rId2"/>
+    <sheet name="habitat_amount artigo" sheetId="3" r:id="rId1"/>
+    <sheet name="habitat_amount" sheetId="1" r:id="rId2"/>
+    <sheet name="configuration artigo" sheetId="4" r:id="rId3"/>
+    <sheet name="configuration" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="264">
   <si>
     <t>Model</t>
   </si>
@@ -857,17 +859,149 @@
     <t>0.01896191</t>
   </si>
   <si>
+    <t>0.0138</t>
+  </si>
+  <si>
     <t>1012.5318</t>
   </si>
   <si>
     <t>MENOS 15.3241</t>
+  </si>
+  <si>
+    <t>Bragg</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>0.0352124</t>
+  </si>
+  <si>
+    <t>0.0730374</t>
+  </si>
+  <si>
+    <t>0.0058423</t>
+  </si>
+  <si>
+    <t>0.3705</t>
+  </si>
+  <si>
+    <t>0.3252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0027</t>
+  </si>
+  <si>
+    <t>0.7112</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>0.0004</t>
+  </si>
+  <si>
+    <t>0.4488</t>
+  </si>
+  <si>
+    <t>0.0219</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.5756</t>
+  </si>
+  <si>
+    <t>68.2916</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36.4284</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>0.26918</t>
+  </si>
+  <si>
+    <t>0.05231</t>
+  </si>
+  <si>
+    <t>0.08946</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>0.01271</t>
+  </si>
+  <si>
+    <t>0.01252</t>
+  </si>
+  <si>
+    <t>0.26628</t>
+  </si>
+  <si>
+    <t>0.018961</t>
+  </si>
+  <si>
+    <t>954.5504</t>
+  </si>
+  <si>
+    <t>449.7172</t>
+  </si>
+  <si>
+    <t>683.984</t>
+  </si>
+  <si>
+    <t>0.3451</t>
+  </si>
+  <si>
+    <t>0.3173</t>
+  </si>
+  <si>
+    <t>0.4407</t>
+  </si>
+  <si>
+    <t>0.3952</t>
+  </si>
+  <si>
+    <t>982.5109</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>0.7122</t>
+  </si>
+  <si>
+    <t>0.00266</t>
+  </si>
+  <si>
+    <t>MENOS 0.00252</t>
+  </si>
+  <si>
+    <t>Crossings aggregation</t>
+  </si>
+  <si>
+    <t>Proportion of habitat</t>
+  </si>
+  <si>
+    <t>Total crossings</t>
+  </si>
+  <si>
+    <t>Matrix permeability</t>
+  </si>
+  <si>
+    <t>Perceptual range</t>
+  </si>
+  <si>
+    <t>Vision angle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -899,16 +1033,47 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -916,13 +1081,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,12 +1448,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3348A-9B8E-E749-AC59-19045C4CC464}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="6" customWidth="1"/>
+    <col min="5" max="10" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280C262A-58A4-8D4D-950B-0BBD01500C1B}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2710,428 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DC60CD-D793-0447-8C95-D7162A2DE080}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B27908-AE6B-2A47-875E-FD599B0812BD}">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -2684,10 +3735,10 @@
         <v>217</v>
       </c>
       <c r="F38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
